--- a/src/analises/result/excel/mefs_aleatorias/fsm_random-time.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/fsm_random-time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1613A63-8862-E543-ABFA-AA43E58D4EAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D966069-6250-964D-B4BF-E74599E3B059}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="32940" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15520" yWindow="460" windowWidth="22880" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -4594,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:S24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5308,6 +5308,38 @@
       <c r="J11">
         <v>180</v>
       </c>
+      <c r="M11">
+        <f>SUM(M2:M10)/9</f>
+        <v>318.0023663157512</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:T11" si="9">SUM(N2:N10)/9</f>
+        <v>35867.19377583282</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="9"/>
+        <v>334.95307569494184</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>488.75986109959962</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>10052.855331105784</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="9"/>
+        <v>37927.503158572479</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="9"/>
+        <v>292.2788255093422</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>276.73939847548581</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -5386,31 +5418,31 @@
         <v>99</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:T13" si="9">COUNT(D591:D689)</f>
+        <f t="shared" ref="N13:T13" si="10">COUNT(D591:D689)</f>
         <v>99</v>
       </c>
       <c r="O13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="P13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="R13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="S13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="T13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
     </row>
@@ -5453,31 +5485,31 @@
         <v>98</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:T14" si="10">COUNT(D690:D787)</f>
+        <f t="shared" ref="N14:T14" si="11">COUNT(D690:D787)</f>
         <v>98</v>
       </c>
       <c r="O14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="P14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="R14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="S14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="T14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
     </row>
@@ -5520,31 +5552,31 @@
         <v>96</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:T15" si="11">COUNT(D788:D883)</f>
+        <f t="shared" ref="N15:T15" si="12">COUNT(D788:D883)</f>
         <v>96</v>
       </c>
       <c r="O15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="P15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="R15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="S15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="T15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
     </row>
@@ -5587,31 +5619,31 @@
         <v>97</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:T16" si="12">COUNT(D13:D109)</f>
+        <f t="shared" ref="N16:T16" si="13">COUNT(D13:D109)</f>
         <v>97</v>
       </c>
       <c r="O16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="P16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="R16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="S16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="T16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
     </row>
@@ -5654,31 +5686,31 @@
         <v>99</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:T17" si="13">COUNT(D110:D208)</f>
+        <f t="shared" ref="N17:T17" si="14">COUNT(D110:D208)</f>
         <v>99</v>
       </c>
       <c r="O17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="P17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="R17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="S17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="T17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
     </row>
@@ -5721,31 +5753,31 @@
         <v>99</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:T18" si="14">COUNT(D209:D307)</f>
+        <f t="shared" ref="N18:T18" si="15">COUNT(D209:D307)</f>
         <v>99</v>
       </c>
       <c r="O18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
       <c r="P18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
       <c r="R18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
       <c r="S18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
       <c r="T18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
     </row>
@@ -5788,31 +5820,31 @@
         <v>100</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:T19" si="15">COUNT(D308:D407)</f>
+        <f t="shared" ref="N19:T19" si="16">COUNT(D308:D407)</f>
         <v>100</v>
       </c>
       <c r="O19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="P19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="R19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="S19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="T19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
     </row>
@@ -5855,31 +5887,31 @@
         <v>97</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:T20" si="16">COUNT(D408:D504)</f>
+        <f t="shared" ref="N20:T20" si="17">COUNT(D408:D504)</f>
         <v>97</v>
       </c>
       <c r="O20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="P20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="R20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="S20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
       <c r="T20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>97</v>
       </c>
     </row>
@@ -5922,31 +5954,31 @@
         <v>97</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:T21" si="17">COUNT(D505:D601)</f>
+        <f t="shared" ref="N21:T21" si="18">COUNT(D505:D601)</f>
         <v>97</v>
       </c>
       <c r="O21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="P21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="R21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="S21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
       <c r="T21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>97</v>
       </c>
     </row>

--- a/src/analises/result/excel/mefs_aleatorias/fsm_random-time.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/fsm_random-time.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D966069-6250-964D-B4BF-E74599E3B059}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B79EE-61AD-684B-9E15-B6F355C16783}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15520" yWindow="460" windowWidth="22880" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26140" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -109,28 +109,28 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>BFS All-trans</t>
-  </si>
-  <si>
-    <t>BFS All-transpair</t>
-  </si>
-  <si>
-    <t>DFS All-trans</t>
-  </si>
-  <si>
-    <t>DFS All-transpair</t>
-  </si>
-  <si>
-    <t>H-Switch Cover All-trans</t>
-  </si>
-  <si>
-    <t>H-Switch Cover All-transpair</t>
-  </si>
-  <si>
     <t>ALL TRANSITIONS PAIR (1. BFS, DFS, H-SC, CPP; 2. DFS, CPP)</t>
   </si>
   <si>
     <t>ALL TRANSITIONS (1. BFS, DFS, H-SC, CPP; 2. BFS, DFS, CPP)</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS </t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>CPP</t>
   </si>
 </sst>
 </file>
@@ -705,6 +705,32 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0"/>
+              <a:t>All-transitions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25431895639910684"/>
+          <c:y val="1.8750124588856772E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -720,7 +746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BFS All-trans</c:v>
+                  <c:v>BFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -833,560 +859,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DFS All-trans</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="D81E00"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D81E00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="D81E00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>time!$L$2:$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>time!$O$2:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>234.04040404040404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>258.40816326530614</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>278.26041666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>314.01030927835052</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>333.57575757575756</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>429.24242424242425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>273.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>294.13402061855669</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>599.20618556701027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-B07D-B545-9ACA-904F47927958}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>time!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPP All-trans</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>time!$L$2:$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>time!$S$2:$S$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>294.97979797979798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>287.01020408163265</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>293.52083333333331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>276.37113402061857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>277.35353535353534</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>306.46464646464648</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>298.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>307.91752577319585</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>288.39175257731961</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-B07D-B545-9ACA-904F47927958}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="230996880"/>
-        <c:axId val="227451344"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="230996880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>NUMBER</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="0" baseline="0"/>
-                  <a:t> OF STATES</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="0"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227451344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="227451344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>TIME (MILISECONDS)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="230996880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>time!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BFS All-trans</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>time!$L$2:$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>time!$M$2:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>288.20202020202021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>285.07142857142856</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>319.95833333333331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>295.35051546391753</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>318.34343434343435</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>576.01010101010104</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>231.57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>276.03092783505156</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>271.48453608247422</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-B07D-B545-9ACA-904F47927958}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>time!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DFS All-trans</c:v>
+                  <c:v>DFS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1501,7 +974,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H-Switch Cover All-trans</c:v>
+                  <c:v>HSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1611,7 +1084,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPP All-trans</c:v>
+                  <c:v>CPP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1744,7 +1217,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="0"/>
@@ -1773,21 +1246,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr sz="1900"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1802,6 +1265,7 @@
       <c:valAx>
         <c:axId val="227451344"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1827,11 +1291,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>TIME (MILISECONDS)</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
+                  <a:t>GENERATION TIME (MILISECONDS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1850,21 +1314,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr sz="1900"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1876,6 +1330,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.49727039017510871"/>
+          <c:y val="1.8749999999999999E-2"/>
+          <c:w val="0.50172787636620053"/>
+          <c:h val="9.4283710629921261E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1883,12 +1347,19 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1901,7 +1372,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1916,6 +1387,32 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0"/>
+              <a:t>All-transition-pairs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24486000117522624"/>
+          <c:y val="1.8749999999999999E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1931,7 +1428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BFS All-transpair</c:v>
+                  <c:v>BFS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2044,7 +1541,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DFS All-transpair</c:v>
+                  <c:v>DFS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2159,7 +1656,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>H-Switch Cover All-transpair</c:v>
+                  <c:v>HSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2269,7 +1766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPP All-transpair</c:v>
+                  <c:v>CPP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2402,10 +1899,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
                   <a:t>NUMBER OF STATES</a:t>
                 </a:r>
               </a:p>
@@ -2431,21 +1928,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr sz="1900"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2460,6 +1947,7 @@
       <c:valAx>
         <c:axId val="227451344"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2481,15 +1969,15 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>TIME (MILISECONDS)</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
+                  <a:t>GENERATION TIME (MILISECONDS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2508,21 +1996,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr sz="1900"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2534,454 +2012,46 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5265297038429898"/>
+          <c:y val="1.8749999999999999E-2"/>
+          <c:w val="0.47305984839581622"/>
+          <c:h val="8.6734990157480318E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>time!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DFS All-transpair</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="D81E00"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D81E00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="D81E00"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>time!$L$2:$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>time!$P$2:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>659.78787878787875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>238.61224489795919</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>285.0625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>243.5979381443299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>267.01010101010098</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>392.77777777777777</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>553.98</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>754.84536082474222</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1003.1649484536083</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77E6-EB45-A5D5-F4FEBF5421C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>time!$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPP All-transpair</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>time!$L$2:$L$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>time!$T$2:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>271.17171717171715</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>299.89795918367349</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>214.32989690721649</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>292.43434343434342</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256.25252525252523</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>270.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>313.43298969072163</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>309.50515463917526</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-77E6-EB45-A5D5-F4FEBF5421C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="230996880"/>
-        <c:axId val="227451344"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="230996880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>NUMBER OF STATES</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227451344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="227451344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>TIME (MILISECONDS)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="230996880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2999,22 +2069,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>882650</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C67CBED-88C6-0442-9982-532E05A4F913}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242C3B4A-CCB3-A349-ADB3-294429B06287}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,54 +2106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242C3B4A-CCB3-A349-ADB3-294429B06287}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>1250950</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3104,45 +2136,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0C960B-18BD-AE43-84D3-0B4C26A5A68A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4018,584 +3012,12 @@
 </a:themeOverride>
 </file>
 
-<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4472C4"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4472C4"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4650,28 +3072,28 @@
         <v>0</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -6078,7 +4500,7 @@
         <v>186</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -6088,7 +4510,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="U24" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
